--- a/src/main/webapp/archivos/LC1010-30 Formato de planilla reducido(MyPEs).xlsx
+++ b/src/main/webapp/archivos/LC1010-30 Formato de planilla reducido(MyPEs).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="19260" windowHeight="5535"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="19260" windowHeight="5535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Formato propuesto" sheetId="8" r:id="rId1"/>
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Descripción por campo'!$A$1:$D$32</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
   <si>
     <t>Nº</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Información constante del dependiente</t>
+  </si>
+  <si>
+    <t>dia/mes/año Ejemplo: 11/09/2001</t>
   </si>
 </sst>
 </file>
@@ -531,12 +534,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -550,6 +547,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -911,27 +914,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" customWidth="1"/>
+    <col min="16" max="16" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="34.5" thickBot="1">
+    <row r="1" spans="1:31" ht="32.25" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1072,13 +1075,15 @@
   </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.5" thickBot="1">
@@ -1091,7 +1096,7 @@
       <c r="C1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1105,7 +1110,7 @@
       <c r="C2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="27"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" ht="25.5">
       <c r="A3" s="11">
@@ -1117,7 +1122,7 @@
       <c r="C3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1131,7 +1136,7 @@
       <c r="C4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4" ht="25.5">
       <c r="A5" s="11">
@@ -1143,7 +1148,7 @@
       <c r="C5" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4" ht="25.5">
       <c r="A6" s="11">
@@ -1155,7 +1160,7 @@
       <c r="C6" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="29"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" ht="25.5">
       <c r="A7" s="11">
@@ -1167,7 +1172,7 @@
       <c r="C7" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="26" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1178,10 +1183,10 @@
       <c r="B8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="11">
@@ -1190,8 +1195,8 @@
       <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="11">
@@ -1200,8 +1205,8 @@
       <c r="B10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="11">
@@ -1210,8 +1215,8 @@
       <c r="B11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:4" ht="25.5">
       <c r="A12" s="11">
@@ -1220,8 +1225,8 @@
       <c r="B12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="28" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="26" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1235,7 +1240,7 @@
       <c r="C13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="26" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1246,8 +1251,12 @@
       <c r="B14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="29"/>
+      <c r="C14" s="23">
+        <v>0</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="11">
@@ -1259,7 +1268,7 @@
       <c r="C15" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="11">
@@ -1271,7 +1280,7 @@
       <c r="C16" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="29"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="51">
       <c r="A17" s="11">
@@ -1283,7 +1292,7 @@
       <c r="C17" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="29"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="11">
@@ -1295,7 +1304,7 @@
       <c r="C18" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="26" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1309,7 +1318,9 @@
       <c r="C19" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="29"/>
+      <c r="D19" s="27" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="38.25">
       <c r="A20" s="11">
@@ -1321,7 +1332,7 @@
       <c r="C20" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="26" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1335,7 +1346,7 @@
       <c r="C21" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="29"/>
+      <c r="D21" s="27"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="11">
@@ -1347,7 +1358,7 @@
       <c r="C22" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="27"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="11">
@@ -1357,7 +1368,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="23"/>
-      <c r="D23" s="29"/>
+      <c r="D23" s="27"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="11">
@@ -1367,7 +1378,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="23"/>
-      <c r="D24" s="29"/>
+      <c r="D24" s="27"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="11">
@@ -1377,7 +1388,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="23"/>
-      <c r="D25" s="29"/>
+      <c r="D25" s="27"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="11">
@@ -1389,7 +1400,7 @@
       <c r="C26" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="29"/>
+      <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="11">
@@ -1399,7 +1410,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="23"/>
-      <c r="D27" s="29"/>
+      <c r="D27" s="27"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="11">
@@ -1409,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="23"/>
-      <c r="D28" s="29"/>
+      <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="11">
@@ -1419,7 +1430,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="23"/>
-      <c r="D29" s="29"/>
+      <c r="D29" s="27"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="11">
@@ -1431,7 +1442,7 @@
       <c r="C30" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="29"/>
+      <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="11">
@@ -1443,7 +1454,7 @@
       <c r="C31" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="29"/>
+      <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:4" ht="39" thickBot="1">
       <c r="A32" s="12">
@@ -1453,7 +1464,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="28" t="s">
         <v>59</v>
       </c>
     </row>
